--- a/BinderBacklog.xlsx
+++ b/BinderBacklog.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7A5B26-A6F6-4B07-A645-64C65D34758D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{120294B3-B192-4CDE-9654-2022448F0445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="762" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Informations " sheetId="13" r:id="rId1"/>
@@ -18,9 +18,8 @@
     <sheet name="DailyMeeting" sheetId="15" r:id="rId8"/>
     <sheet name="Retroperspective" sheetId="16" r:id="rId9"/>
     <sheet name="Alexis Journal" sheetId="18" r:id="rId10"/>
-    <sheet name="Student2 Journal" sheetId="24" r:id="rId11"/>
-    <sheet name="Student3 Journal" sheetId="23" r:id="rId12"/>
-    <sheet name="Student4 Journal" sheetId="22" r:id="rId13"/>
+    <sheet name="Daniel Journal" sheetId="24" r:id="rId11"/>
+    <sheet name="Pierre-Yves Journal" sheetId="23" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ProductBacklog!$A$2:$K$39</definedName>
@@ -316,7 +315,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="353">
   <si>
     <t>Sprint</t>
   </si>
@@ -980,9 +979,6 @@
     <t>SPRINT 0</t>
   </si>
   <si>
-    <t>End : 18.11.2019</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -995,102 +991,24 @@
     <t>How to improve ?</t>
   </si>
   <si>
-    <t>He doesnt't understand all user-stories</t>
-  </si>
-  <si>
-    <t>It was good, which one is a expert in one topic so he take this tasks</t>
-  </si>
-  <si>
-    <t>They weren't all there</t>
-  </si>
-  <si>
-    <t>notify the team members when he as an appointment</t>
-  </si>
-  <si>
-    <t>need all informations of the customer and understand this</t>
-  </si>
-  <si>
-    <t>Tell a lot with the teammembers, split the task</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> be at the time in the school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">good beginning, task splitting, better understanding of the user stories. </t>
-  </si>
-  <si>
     <t>SPRINT 1</t>
   </si>
   <si>
-    <t>End : 02.12.2019</t>
-  </si>
-  <si>
     <t>General feedback / Sprint Review</t>
   </si>
   <si>
-    <t>Able to reach the goal</t>
-  </si>
-  <si>
-    <t>Communication can still be better</t>
-  </si>
-  <si>
-    <t>Explain more what we do / are going to do</t>
-  </si>
-  <si>
     <t>- Keep it simple / Don't waste time on unimportant things</t>
   </si>
   <si>
-    <t>We've reached the goal and faced the first difficulties, which will help us in the future</t>
-  </si>
-  <si>
-    <t>Coordination and lack of implication</t>
-  </si>
-  <si>
-    <t>Define tasks earlier and assign them to people equaly.</t>
-  </si>
-  <si>
     <t>- Sort orders by date and time</t>
   </si>
   <si>
-    <t>We were able to fullfil most of the tasks and reach the fixed goals</t>
-  </si>
-  <si>
-    <t>We still need to communicate more</t>
-  </si>
-  <si>
-    <t>Talk more together</t>
-  </si>
-  <si>
     <t>- History by delete an order / Rename deletebutton -&gt; cancel</t>
   </si>
   <si>
-    <t>The goals were reached and important information e.g. for the code conventions are declared</t>
-  </si>
-  <si>
-    <t>The punctuality has improved but it can be 
-better and the tasks should be done by that 
-person, who is responsible for that</t>
-  </si>
-  <si>
-    <t>Maybe tallk together or set deadlines and write 
-the tasks down</t>
-  </si>
-  <si>
     <t>- Demo: Better to explain a US then demo, then the next US and the demo and so on</t>
   </si>
   <si>
-    <t>Almost all US could be successfully implemented, programming convention were defined, so that all program in the same style, good planning, so that all understood the mission well</t>
-  </si>
-  <si>
-    <t>distribution of tasks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write down each person's tasks. Everyone should have completed the tasks by the agreed deadline. </t>
-  </si>
-  <si>
     <t>- In the next sprint the rider should be in focus / The app should be seen as the rider's point of view</t>
   </si>
   <si>
@@ -1100,63 +1018,18 @@
     <t>SPRINT 2</t>
   </si>
   <si>
-    <t>End : 13.12.2019</t>
-  </si>
-  <si>
-    <t>Good job</t>
-  </si>
-  <si>
-    <t>More comitment for the group meeting / documentation part, it is note only coding and it is not the scrum master part to do everything in the documentation part</t>
-  </si>
-  <si>
     <t>- good Demo / Presentation</t>
   </si>
   <si>
-    <t>We were able to easily tu our codes together</t>
-  </si>
-  <si>
-    <t>Some team members have done their job at the last moment. This made it difficult to organize and stressful.</t>
-  </si>
-  <si>
-    <t>Start working faster.</t>
-  </si>
-  <si>
     <t>- Handling with the checkpoints is nice</t>
   </si>
   <si>
-    <t>All the functionnalities were developped and a good collaboration was done</t>
-  </si>
-  <si>
-    <t>No need to optimize, do as easy as possible however it's not the most optimized</t>
-  </si>
-  <si>
-    <t>Assume that we need to developp fast and optimize later</t>
-  </si>
-  <si>
     <t>- In the next sprint, the accountant should be In focus / clean all bugs</t>
   </si>
   <si>
-    <t>We have done all the defined US and we have also well seperated teh tasks</t>
-  </si>
-  <si>
-    <t>Some troubles with the OneDrive for our product backlog</t>
-  </si>
-  <si>
-    <t>Maybe to have always a plan b</t>
-  </si>
-  <si>
     <t>-When logging in to Google, the password should always be requested when logging in, i.e. do not save the password.</t>
   </si>
   <si>
-    <t xml:space="preserve">We were able to implement the defined US successfully. We had a better division of tasks than in Sprint 1. The communication between the developers was good. </t>
-  </si>
-  <si>
-    <t>We once had a problem with the OneDrive file, so when the Product Owner met us, the Sprint2 sheet was not uptodate.</t>
-  </si>
-  <si>
-    <t>A copy of the ProductBacklog should be available online.</t>
-  </si>
-  <si>
     <t>-We will receive a list with all important attributes for the accountant from the PO.</t>
   </si>
   <si>
@@ -1485,6 +1358,42 @@
   </si>
   <si>
     <t>Everyone</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Pierre-Yves</t>
+  </si>
+  <si>
+    <t>We progressed on the database</t>
+  </si>
+  <si>
+    <t>We missed updating the project backlog</t>
+  </si>
+  <si>
+    <t>Better coordination and organization and priority understanding</t>
+  </si>
+  <si>
+    <t>We progressed on the main structure of js server and connection on DB</t>
+  </si>
+  <si>
+    <t>We missed updating the project backlog and I miss some html files to advance work</t>
+  </si>
+  <si>
+    <t>Better communication and organize at least 2 sessions per week in group</t>
+  </si>
+  <si>
+    <t>End : 06.01.2025</t>
+  </si>
+  <si>
+    <t>End : 13.01.2025</t>
+  </si>
+  <si>
+    <t>End : 20.01.2025</t>
+  </si>
+  <si>
+    <t>Initial database development</t>
   </si>
 </sst>
 </file>
@@ -2871,6 +2780,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2894,11 +2808,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="272">
@@ -3175,47 +3084,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="271" xr:uid="{1E13FEDC-8574-674B-B9F7-8FE7F1FF49DC}"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="FF0070C0"/>
@@ -5289,7 +5158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FC80CA-FF8C-8D4B-B410-BD64CF53681B}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -5355,7 +5224,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="18" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
@@ -5378,38 +5247,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2F6309-A303-8F49-910D-3FC3705061E3}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.06640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="128" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B1" s="129" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="C1" s="130" t="s">
-        <v>336</v>
+        <v>295</v>
       </c>
       <c r="D1" s="131" t="s">
-        <v>337</v>
+        <v>296</v>
       </c>
       <c r="E1" s="132" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
       <c r="F1" s="133" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -5417,19 +5286,19 @@
         <v>45641</v>
       </c>
       <c r="C2" s="135" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
       <c r="D2" s="136">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E2" s="137" t="s">
-        <v>340</v>
-      </c>
-      <c r="F2" s="161">
+        <v>299</v>
+      </c>
+      <c r="F2" s="153">
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -5437,17 +5306,17 @@
         <v>45642</v>
       </c>
       <c r="C3" s="135" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="D3" s="136">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E3" s="140" t="s">
-        <v>374</v>
-      </c>
-      <c r="F3" s="160"/>
+        <v>333</v>
+      </c>
+      <c r="F3" s="152"/>
       <c r="H3" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -5455,866 +5324,86 @@
         <v>45648</v>
       </c>
       <c r="C4" s="135" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="D4" s="136">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E4" s="140" t="s">
-        <v>345</v>
-      </c>
-      <c r="F4" s="160"/>
+        <v>304</v>
+      </c>
+      <c r="F4" s="152"/>
       <c r="H4" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="139">
-        <v>45199</v>
-      </c>
-      <c r="C5" s="135" t="s">
-        <v>342</v>
-      </c>
+      <c r="B5" s="139"/>
+      <c r="C5" s="135"/>
       <c r="D5" s="136">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="E5" s="141" t="s">
-        <v>340</v>
-      </c>
-      <c r="F5" s="160"/>
+        <v>299</v>
+      </c>
+      <c r="F5" s="152"/>
     </row>
     <row r="6" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="139">
-        <v>45199</v>
-      </c>
-      <c r="C6" s="135" t="s">
-        <v>343</v>
-      </c>
+      <c r="B6" s="139"/>
       <c r="D6" s="136">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E6" s="141" t="s">
-        <v>280</v>
-      </c>
-      <c r="F6" s="160"/>
+        <v>239</v>
+      </c>
+      <c r="F6" s="152"/>
     </row>
     <row r="7" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="139">
-        <v>45200</v>
-      </c>
-      <c r="C7" s="135" t="s">
-        <v>344</v>
-      </c>
+      <c r="B7" s="139"/>
+      <c r="C7" s="135"/>
       <c r="D7" s="136">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E7" s="141" t="s">
-        <v>345</v>
-      </c>
-      <c r="F7" s="160"/>
+        <v>304</v>
+      </c>
+      <c r="F7" s="152"/>
     </row>
     <row r="8" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="139">
-        <v>45206</v>
-      </c>
-      <c r="C8" s="135" t="s">
-        <v>346</v>
-      </c>
+      <c r="B8" s="139"/>
       <c r="D8" s="136">
         <v>6.25E-2</v>
       </c>
       <c r="E8" s="141" t="s">
-        <v>340</v>
-      </c>
-      <c r="F8" s="160"/>
+        <v>299</v>
+      </c>
+      <c r="F8" s="152"/>
     </row>
     <row r="9" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="139">
-        <v>45213</v>
-      </c>
-      <c r="C9" s="135" t="s">
-        <v>347</v>
-      </c>
+      <c r="B9" s="139"/>
+      <c r="C9" s="135"/>
       <c r="D9" s="136">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E9" s="141" t="s">
-        <v>340</v>
-      </c>
-      <c r="F9" s="160"/>
+        <v>299</v>
+      </c>
+      <c r="F9" s="152"/>
     </row>
     <row r="10" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="139">
-        <v>45213</v>
-      </c>
-      <c r="C10" s="142" t="s">
-        <v>348</v>
-      </c>
+      <c r="B10" s="139"/>
+      <c r="C10" s="142"/>
       <c r="D10" s="136">
         <v>0.125</v>
       </c>
       <c r="E10" s="141" t="s">
-        <v>345</v>
-      </c>
-      <c r="F10" s="160"/>
+        <v>304</v>
+      </c>
+      <c r="F10" s="152"/>
     </row>
     <row r="11" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="139"/>
-      <c r="C11" s="142" t="s">
-        <v>349</v>
-      </c>
-      <c r="D11" s="136"/>
-      <c r="E11" s="141"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="139"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="141"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="139"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="141"/>
-    </row>
-    <row r="14" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="139"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="141"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="139"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="141"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="139"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="141"/>
-    </row>
-    <row r="17" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="139"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="141"/>
-    </row>
-    <row r="18" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="139"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="141"/>
-    </row>
-    <row r="19" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="139"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="141"/>
-    </row>
-    <row r="20" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="139"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="141"/>
-    </row>
-    <row r="21" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="139"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="141"/>
-    </row>
-    <row r="22" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="139"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="141"/>
-    </row>
-    <row r="23" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="139"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="141"/>
-    </row>
-    <row r="24" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="139"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="141"/>
-    </row>
-    <row r="25" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="139"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="136"/>
-      <c r="E25" s="141"/>
-    </row>
-    <row r="26" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="139"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="136"/>
-      <c r="E26" s="141"/>
-    </row>
-    <row r="27" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="139"/>
-      <c r="C27" s="135"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="141"/>
-    </row>
-    <row r="28" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="139"/>
-      <c r="C28" s="142"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="141"/>
-    </row>
-    <row r="29" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="139"/>
-      <c r="C29" s="142"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="141"/>
-    </row>
-    <row r="30" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="139"/>
-      <c r="C30" s="142"/>
-      <c r="D30" s="136"/>
-      <c r="E30" s="143"/>
-    </row>
-    <row r="31" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="139"/>
-      <c r="C31" s="142"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="141"/>
-    </row>
-    <row r="32" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="139"/>
-      <c r="C32" s="142"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="141"/>
-    </row>
-    <row r="33" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="139"/>
-      <c r="C33" s="142"/>
-      <c r="D33" s="136"/>
-      <c r="E33" s="141"/>
-    </row>
-    <row r="34" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="139"/>
-      <c r="C34" s="142"/>
-      <c r="D34" s="136"/>
-      <c r="E34" s="141"/>
-    </row>
-    <row r="35" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="139"/>
-      <c r="C35" s="135"/>
-      <c r="D35" s="136"/>
-      <c r="E35" s="141"/>
-    </row>
-    <row r="36" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="139"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="136"/>
-      <c r="E36" s="141"/>
-    </row>
-    <row r="37" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="139"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="136"/>
-      <c r="E37" s="141"/>
-    </row>
-    <row r="38" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="139"/>
-      <c r="C38" s="144"/>
-      <c r="D38" s="136"/>
-      <c r="E38" s="141"/>
-    </row>
-    <row r="39" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="139"/>
-      <c r="C39" s="135"/>
-      <c r="D39" s="136"/>
-      <c r="E39" s="141"/>
-    </row>
-    <row r="40" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="139"/>
-      <c r="C40" s="135"/>
-      <c r="D40" s="136"/>
-      <c r="E40" s="141"/>
-    </row>
-    <row r="41" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="139"/>
-      <c r="C41" s="135"/>
-      <c r="D41" s="136"/>
-      <c r="E41" s="141"/>
-    </row>
-    <row r="42" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="139"/>
-      <c r="C42" s="135"/>
-      <c r="D42" s="136"/>
-      <c r="E42" s="141"/>
-    </row>
-    <row r="43" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="139"/>
-      <c r="C43" s="135"/>
-      <c r="D43" s="136"/>
-      <c r="E43" s="141"/>
-    </row>
-    <row r="44" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="139"/>
-      <c r="C44" s="135"/>
-      <c r="D44" s="136"/>
-      <c r="E44" s="141"/>
-    </row>
-    <row r="45" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="139"/>
-      <c r="C45" s="144"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="141"/>
-    </row>
-    <row r="46" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="139"/>
-      <c r="C46" s="135"/>
-      <c r="D46" s="136"/>
-      <c r="E46" s="141"/>
-    </row>
-    <row r="47" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="139"/>
-      <c r="C47" s="144"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="141"/>
-    </row>
-    <row r="48" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="139"/>
-      <c r="C48" s="144"/>
-      <c r="D48" s="136"/>
-      <c r="E48" s="141"/>
-    </row>
-    <row r="49" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="139"/>
-      <c r="C49" s="135"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="141"/>
-    </row>
-    <row r="50" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="139"/>
-      <c r="C50" s="135"/>
-      <c r="D50" s="136"/>
-      <c r="E50" s="141"/>
-    </row>
-    <row r="51" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="139"/>
-      <c r="C51" s="144"/>
-      <c r="D51" s="136"/>
-      <c r="E51" s="141"/>
-    </row>
-    <row r="52" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="139"/>
-      <c r="C52" s="135"/>
-      <c r="D52" s="136"/>
-      <c r="E52" s="141"/>
-    </row>
-    <row r="53" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="139"/>
-      <c r="C53" s="144"/>
-      <c r="D53" s="136"/>
-      <c r="E53" s="141"/>
-    </row>
-    <row r="54" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="139"/>
-      <c r="C54" s="144"/>
-      <c r="D54" s="136"/>
-      <c r="E54" s="141"/>
-    </row>
-    <row r="55" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="139"/>
-      <c r="C55" s="135"/>
-      <c r="D55" s="136"/>
-      <c r="E55" s="141"/>
-    </row>
-    <row r="56" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="139"/>
-      <c r="C56" s="135"/>
-      <c r="D56" s="136"/>
-      <c r="E56" s="141"/>
-    </row>
-    <row r="57" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="139"/>
-      <c r="C57" s="135"/>
-      <c r="D57" s="136"/>
-      <c r="E57" s="141"/>
-    </row>
-    <row r="58" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="139"/>
-      <c r="C58" s="135"/>
-      <c r="D58" s="136"/>
-      <c r="E58" s="141"/>
-    </row>
-    <row r="59" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="139"/>
-      <c r="C59" s="135"/>
-      <c r="D59" s="136"/>
-      <c r="E59" s="141"/>
-    </row>
-    <row r="60" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="139"/>
-      <c r="C60" s="135"/>
-      <c r="D60" s="136"/>
-      <c r="E60" s="141"/>
-    </row>
-    <row r="61" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="139"/>
-      <c r="C61" s="135"/>
-      <c r="D61" s="136"/>
-      <c r="E61" s="141"/>
-    </row>
-    <row r="62" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="139"/>
-      <c r="C62" s="135"/>
-      <c r="D62" s="136"/>
-      <c r="E62" s="141"/>
-    </row>
-    <row r="63" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="139"/>
-      <c r="C63" s="135"/>
-      <c r="D63" s="136"/>
-      <c r="E63" s="141"/>
-    </row>
-    <row r="64" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="139"/>
-      <c r="C64" s="135"/>
-      <c r="D64" s="136"/>
-      <c r="E64" s="141"/>
-    </row>
-    <row r="65" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="139"/>
-      <c r="C65" s="135"/>
-      <c r="D65" s="136"/>
-      <c r="E65" s="141"/>
-    </row>
-    <row r="66" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="139"/>
-      <c r="C66" s="135"/>
-      <c r="D66" s="136"/>
-      <c r="E66" s="141"/>
-    </row>
-    <row r="67" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="139"/>
-      <c r="C67" s="135"/>
-      <c r="D67" s="136"/>
-      <c r="E67" s="141"/>
-    </row>
-    <row r="68" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="139"/>
-      <c r="C68" s="135"/>
-      <c r="D68" s="136"/>
-      <c r="E68" s="141"/>
-    </row>
-    <row r="69" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="139"/>
-      <c r="C69" s="135"/>
-      <c r="D69" s="136"/>
-      <c r="E69" s="141"/>
-    </row>
-    <row r="70" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="139"/>
-      <c r="C70" s="135"/>
-      <c r="D70" s="136"/>
-      <c r="E70" s="141"/>
-    </row>
-    <row r="71" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="139"/>
-      <c r="C71" s="135"/>
-      <c r="D71" s="136"/>
-      <c r="E71" s="141"/>
-    </row>
-    <row r="72" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="139"/>
-      <c r="C72" s="135"/>
-      <c r="D72" s="136"/>
-      <c r="E72" s="141"/>
-    </row>
-    <row r="73" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="139"/>
-      <c r="C73" s="135"/>
-      <c r="D73" s="136"/>
-      <c r="E73" s="141"/>
-    </row>
-    <row r="74" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="139"/>
-      <c r="C74" s="135"/>
-      <c r="D74" s="136"/>
-      <c r="E74" s="141"/>
-    </row>
-    <row r="75" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="139"/>
-      <c r="C75" s="135"/>
-      <c r="D75" s="136"/>
-      <c r="E75" s="141"/>
-    </row>
-    <row r="76" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="139"/>
-      <c r="C76" s="135"/>
-      <c r="D76" s="136"/>
-      <c r="E76" s="141"/>
-    </row>
-    <row r="77" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="139"/>
-      <c r="C77" s="135"/>
-      <c r="D77" s="136"/>
-      <c r="E77" s="141"/>
-    </row>
-    <row r="78" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="139"/>
-      <c r="C78" s="135"/>
-      <c r="D78" s="136"/>
-      <c r="E78" s="141"/>
-    </row>
-    <row r="79" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="139"/>
-      <c r="C79" s="135"/>
-      <c r="D79" s="136"/>
-      <c r="E79" s="141"/>
-    </row>
-    <row r="80" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="139"/>
-      <c r="C80" s="135"/>
-      <c r="D80" s="136"/>
-      <c r="E80" s="141"/>
-    </row>
-    <row r="81" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="139"/>
-      <c r="C81" s="135"/>
-      <c r="D81" s="136"/>
-      <c r="E81" s="141"/>
-    </row>
-    <row r="82" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="139"/>
-      <c r="C82" s="135"/>
-      <c r="D82" s="136"/>
-      <c r="E82" s="141"/>
-    </row>
-    <row r="83" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="139"/>
-      <c r="C83" s="135"/>
-      <c r="D83" s="136"/>
-      <c r="E83" s="141"/>
-    </row>
-    <row r="84" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="139"/>
-      <c r="C84" s="135"/>
-      <c r="D84" s="136"/>
-      <c r="E84" s="141"/>
-    </row>
-    <row r="85" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="139"/>
-      <c r="C85" s="135"/>
-      <c r="D85" s="136"/>
-      <c r="E85" s="141"/>
-    </row>
-    <row r="86" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="139"/>
-      <c r="C86" s="135"/>
-      <c r="D86" s="136"/>
-      <c r="E86" s="141"/>
-    </row>
-    <row r="87" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="139"/>
-      <c r="C87" s="135"/>
-      <c r="D87" s="136"/>
-      <c r="E87" s="141"/>
-    </row>
-    <row r="88" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="139"/>
-      <c r="C88" s="135"/>
-      <c r="D88" s="136"/>
-      <c r="E88" s="141"/>
-    </row>
-    <row r="89" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="139"/>
-      <c r="C89" s="145"/>
-      <c r="D89" s="136"/>
-      <c r="E89" s="141"/>
-    </row>
-    <row r="90" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="139"/>
-      <c r="C90" s="135"/>
-      <c r="D90" s="136"/>
-      <c r="E90" s="141"/>
-    </row>
-    <row r="91" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B91" s="139"/>
-      <c r="C91" s="135"/>
-      <c r="D91" s="136"/>
-      <c r="E91" s="141"/>
-    </row>
-    <row r="92" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B92" s="139"/>
-      <c r="C92" s="135"/>
-      <c r="D92" s="136"/>
-      <c r="E92" s="141"/>
-    </row>
-    <row r="93" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B93" s="139"/>
-      <c r="C93" s="135"/>
-      <c r="D93" s="136"/>
-      <c r="E93" s="141"/>
-    </row>
-    <row r="94" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B94" s="139"/>
-      <c r="C94" s="145"/>
-      <c r="D94" s="136"/>
-      <c r="E94" s="141"/>
-    </row>
-    <row r="95" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B95" s="139"/>
-      <c r="C95" s="145"/>
-      <c r="D95" s="136"/>
-      <c r="E95" s="141"/>
-    </row>
-    <row r="96" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B96" s="139"/>
-      <c r="C96" s="145"/>
-      <c r="D96" s="136"/>
-      <c r="E96" s="141"/>
-    </row>
-    <row r="97" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B97" s="139"/>
-      <c r="C97" s="145"/>
-      <c r="D97" s="136"/>
-      <c r="E97" s="141"/>
-    </row>
-    <row r="98" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B98" s="139"/>
-      <c r="C98" s="145"/>
-      <c r="D98" s="136"/>
-      <c r="E98" s="141"/>
-    </row>
-    <row r="99" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="139"/>
-      <c r="C99" s="145"/>
-      <c r="D99" s="136"/>
-      <c r="E99" s="141"/>
-    </row>
-    <row r="100" spans="2:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B100" s="146"/>
-      <c r="C100" s="147"/>
-      <c r="D100" s="148"/>
-      <c r="E100" s="149"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="E1:E30">
-    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="Back end">
-      <formula>NOT(ISERROR(SEARCH("Back end",E1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="Front end">
-      <formula>NOT(ISERROR(SEARCH("Front end",E1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="Database">
-      <formula>NOT(ISERROR(SEARCH("Database",E1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="Administrative">
-      <formula>NOT(ISERROR(SEARCH("Administrative",E1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32:E100">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="Back end">
-      <formula>NOT(ISERROR(SEARCH("Back end",E32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="Front end">
-      <formula>NOT(ISERROR(SEARCH("Front end",E32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="Database">
-      <formula>NOT(ISERROR(SEARCH("Database",E32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="Administrative">
-      <formula>NOT(ISERROR(SEARCH("Administrative",E32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E647B7DE-5288-1F4A-9D09-DD218E069C2D}">
-  <dimension ref="A1:H100"/>
-  <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="5.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="128" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="129" t="s">
-        <v>335</v>
-      </c>
-      <c r="C1" s="130" t="s">
-        <v>336</v>
-      </c>
-      <c r="D1" s="131" t="s">
-        <v>337</v>
-      </c>
-      <c r="E1" s="132" t="s">
-        <v>338</v>
-      </c>
-      <c r="F1" s="133" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="134">
-        <v>45192</v>
-      </c>
-      <c r="C2" s="135" t="s">
-        <v>339</v>
-      </c>
-      <c r="D2" s="136">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="E2" s="137" t="s">
-        <v>340</v>
-      </c>
-      <c r="F2" s="138">
-        <f>SUM(D2:D100)</f>
-        <v>0.70833333333333326</v>
-      </c>
-      <c r="H2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="139">
-        <v>45192</v>
-      </c>
-      <c r="C3" s="135" t="s">
-        <v>351</v>
-      </c>
-      <c r="D3" s="136">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="E3" s="140" t="s">
-        <v>280</v>
-      </c>
-      <c r="H3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="139">
-        <v>45192</v>
-      </c>
-      <c r="C4" s="135" t="s">
-        <v>341</v>
-      </c>
-      <c r="D4" s="136">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="E4" s="140" t="s">
-        <v>280</v>
-      </c>
-      <c r="H4" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="139">
-        <v>45199</v>
-      </c>
-      <c r="C5" s="135" t="s">
-        <v>342</v>
-      </c>
-      <c r="D5" s="136">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E5" s="141" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="139">
-        <v>45199</v>
-      </c>
-      <c r="C6" s="135" t="s">
-        <v>343</v>
-      </c>
-      <c r="D6" s="136">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="E6" s="141" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="139">
-        <v>45200</v>
-      </c>
-      <c r="C7" s="135" t="s">
-        <v>344</v>
-      </c>
-      <c r="D7" s="136">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="E7" s="141" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="139">
-        <v>45206</v>
-      </c>
-      <c r="C8" s="135" t="s">
-        <v>346</v>
-      </c>
-      <c r="D8" s="136">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E8" s="141" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="139">
-        <v>45213</v>
-      </c>
-      <c r="C9" s="135" t="s">
-        <v>347</v>
-      </c>
-      <c r="D9" s="136">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="E9" s="141" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="139">
-        <v>45213</v>
-      </c>
-      <c r="C10" s="142" t="s">
-        <v>348</v>
-      </c>
-      <c r="D10" s="136">
-        <v>0.125</v>
-      </c>
-      <c r="E10" s="141" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="139"/>
-      <c r="C11" s="142" t="s">
-        <v>349</v>
-      </c>
+      <c r="C11" s="142"/>
       <c r="D11" s="136"/>
       <c r="E11" s="141"/>
     </row>
@@ -6885,12 +5974,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F6DC1E-1D2A-4449-B419-5D7AB9C3975D}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E647B7DE-5288-1F4A-9D09-DD218E069C2D}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H4"/>
+    <sheetView topLeftCell="G1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6905,22 +5994,22 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="128" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B1" s="129" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="C1" s="130" t="s">
-        <v>336</v>
+        <v>295</v>
       </c>
       <c r="D1" s="131" t="s">
-        <v>337</v>
+        <v>296</v>
       </c>
       <c r="E1" s="132" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
       <c r="F1" s="133" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -6928,20 +6017,20 @@
         <v>45192</v>
       </c>
       <c r="C2" s="135" t="s">
-        <v>339</v>
+        <v>298</v>
       </c>
       <c r="D2" s="136">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E2" s="137" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="F2" s="138">
         <f>SUM(D2:D100)</f>
         <v>0.70833333333333326</v>
       </c>
       <c r="H2" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -6949,16 +6038,16 @@
         <v>45192</v>
       </c>
       <c r="C3" s="135" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="D3" s="136">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E3" s="140" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="H3" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -6966,16 +6055,16 @@
         <v>45192</v>
       </c>
       <c r="C4" s="135" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="D4" s="136">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E4" s="140" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="H4" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -6983,13 +6072,13 @@
         <v>45199</v>
       </c>
       <c r="C5" s="135" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="D5" s="136">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="E5" s="141" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -6997,13 +6086,13 @@
         <v>45199</v>
       </c>
       <c r="C6" s="135" t="s">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="D6" s="136">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E6" s="141" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -7011,13 +6100,13 @@
         <v>45200</v>
       </c>
       <c r="C7" s="135" t="s">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="D7" s="136">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E7" s="141" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -7025,13 +6114,13 @@
         <v>45206</v>
       </c>
       <c r="C8" s="135" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="D8" s="136">
         <v>6.25E-2</v>
       </c>
       <c r="E8" s="141" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -7039,13 +6128,13 @@
         <v>45213</v>
       </c>
       <c r="C9" s="135" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="D9" s="136">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E9" s="141" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -7053,19 +6142,19 @@
         <v>45213</v>
       </c>
       <c r="C10" s="142" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="D10" s="136">
         <v>0.125</v>
       </c>
       <c r="E10" s="141" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="139"/>
       <c r="C11" s="142" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="D11" s="136"/>
       <c r="E11" s="141"/>
@@ -7637,12 +6726,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B002263-B868-D341-A896-751E35FBF877}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F6DC1E-1D2A-4449-B419-5D7AB9C3975D}">
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H2" sqref="H2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7657,22 +6746,22 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="128" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B1" s="129" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="C1" s="130" t="s">
-        <v>336</v>
+        <v>295</v>
       </c>
       <c r="D1" s="131" t="s">
-        <v>337</v>
+        <v>296</v>
       </c>
       <c r="E1" s="132" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
       <c r="F1" s="133" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -7680,20 +6769,20 @@
         <v>45192</v>
       </c>
       <c r="C2" s="135" t="s">
-        <v>339</v>
+        <v>298</v>
       </c>
       <c r="D2" s="136">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E2" s="137" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="F2" s="138">
         <f>SUM(D2:D100)</f>
         <v>0.70833333333333326</v>
       </c>
       <c r="H2" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -7701,16 +6790,16 @@
         <v>45192</v>
       </c>
       <c r="C3" s="135" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="D3" s="136">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E3" s="140" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="H3" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -7718,16 +6807,16 @@
         <v>45192</v>
       </c>
       <c r="C4" s="135" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="D4" s="136">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E4" s="140" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="H4" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -7735,13 +6824,13 @@
         <v>45199</v>
       </c>
       <c r="C5" s="135" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="D5" s="136">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="E5" s="141" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -7749,13 +6838,13 @@
         <v>45199</v>
       </c>
       <c r="C6" s="135" t="s">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="D6" s="136">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E6" s="141" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -7763,13 +6852,13 @@
         <v>45200</v>
       </c>
       <c r="C7" s="135" t="s">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="D7" s="136">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E7" s="141" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -7777,13 +6866,13 @@
         <v>45206</v>
       </c>
       <c r="C8" s="135" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="D8" s="136">
         <v>6.25E-2</v>
       </c>
       <c r="E8" s="141" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -7791,13 +6880,13 @@
         <v>45213</v>
       </c>
       <c r="C9" s="135" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="D9" s="136">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E9" s="141" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -7805,19 +6894,19 @@
         <v>45213</v>
       </c>
       <c r="C10" s="142" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="D10" s="136">
         <v>0.125</v>
       </c>
       <c r="E10" s="141" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="139"/>
       <c r="C11" s="142" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="D11" s="136"/>
       <c r="E11" s="141"/>
@@ -8447,7 +7536,7 @@
         <v>86</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -8504,9 +7593,9 @@
   </sheetPr>
   <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="119" zoomScaleNormal="160" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="68" zoomScaleNormal="160" zoomScalePageLayoutView="75" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8559,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>27</v>
@@ -8570,19 +7659,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="G3" s="114">
         <v>1000</v>
@@ -8608,16 +7697,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="116" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="F4" s="117"/>
       <c r="G4" s="114">
@@ -8644,16 +7733,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="F5" s="119"/>
       <c r="G5" s="114">
@@ -8680,16 +7769,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>38</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="F6" s="119"/>
       <c r="G6" s="114">
@@ -8719,13 +7808,13 @@
         <v>17</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="E7" s="116" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
       <c r="F7" s="120"/>
       <c r="G7" s="114">
@@ -8755,16 +7844,16 @@
         <v>17</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="G8" s="15">
         <v>750</v>
@@ -8790,16 +7879,16 @@
         <v>22</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="F9" s="121"/>
       <c r="G9" s="15">
@@ -8827,13 +7916,13 @@
         <v>17</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="15">
@@ -8860,16 +7949,16 @@
         <v>23</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="15">
@@ -8899,13 +7988,13 @@
         <v>17</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="F12" s="120"/>
       <c r="G12" s="15">
@@ -8932,16 +8021,16 @@
         <v>22</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>356</v>
+        <v>315</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="F13" s="121"/>
       <c r="G13" s="15">
@@ -8971,13 +8060,13 @@
         <v>17</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="15">
@@ -9007,13 +8096,13 @@
         <v>17</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="15">
@@ -9043,13 +8132,13 @@
         <v>17</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="15">
@@ -9079,13 +8168,13 @@
         <v>17</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="15">
@@ -9115,13 +8204,13 @@
         <v>17</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="15">
@@ -9151,13 +8240,13 @@
         <v>17</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="15">
@@ -9187,13 +8276,13 @@
         <v>17</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>316</v>
+        <v>275</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>317</v>
+        <v>276</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="15">
@@ -9223,13 +8312,13 @@
         <v>17</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="15">
@@ -9259,13 +8348,13 @@
         <v>17</v>
       </c>
       <c r="C22" s="123" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D22" s="124" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="F22" s="124"/>
       <c r="G22" s="122">
@@ -9295,13 +8384,13 @@
         <v>17</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="15">
@@ -9331,13 +8420,13 @@
         <v>17</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="15">
@@ -9367,13 +8456,13 @@
         <v>17</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="15">
@@ -9403,13 +8492,13 @@
         <v>17</v>
       </c>
       <c r="C26" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>288</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>329</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="15">
@@ -9439,13 +8528,13 @@
         <v>17</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="15">
@@ -9473,13 +8562,13 @@
         <v>17</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="15">
@@ -9507,13 +8596,13 @@
         <v>17</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="15">
@@ -9541,13 +8630,13 @@
         <v>17</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="15">
@@ -9575,13 +8664,13 @@
         <v>17</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="15">
@@ -9609,13 +8698,13 @@
         <v>17</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="15">
@@ -9643,13 +8732,13 @@
         <v>17</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="15">
@@ -9677,13 +8766,13 @@
         <v>17</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="15">
@@ -9711,13 +8800,13 @@
         <v>17</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="F35" s="14"/>
       <c r="G35" s="15">
@@ -9745,13 +8834,13 @@
         <v>17</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="F36" s="14"/>
       <c r="G36" s="15">
@@ -9779,16 +8868,16 @@
         <v>17</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>332</v>
+        <v>291</v>
       </c>
       <c r="G37" s="15">
         <v>10</v>
@@ -9800,7 +8889,7 @@
       <c r="J37" s="15"/>
       <c r="K37" s="16"/>
       <c r="L37" s="16" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
@@ -9843,7 +8932,7 @@
         <v>18</v>
       </c>
       <c r="G41" s="125" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
       <c r="H41" s="126"/>
       <c r="I41" s="127">
@@ -10027,8 +9116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0EA97F-D125-F24E-A236-4709F8F5792B}">
   <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="107" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView topLeftCell="A53" zoomScale="107" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10042,14 +9131,14 @@
   <sheetData>
     <row r="1" spans="1:15" ht="58.05" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
       <c r="B3" s="4">
@@ -10232,7 +9321,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="43" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -10243,7 +9332,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="43" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -10381,8 +9470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A47BA1D-7EDD-5144-9BB2-90F8B836C3FF}">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A11" zoomScale="67" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10403,7 +9492,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>0</v>
@@ -10437,7 +9526,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
@@ -10451,7 +9540,7 @@
         <v>37</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
@@ -10459,22 +9548,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>38</v>
+        <v>352</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>289</v>
-      </c>
+      <c r="B6" s="14"/>
       <c r="D6" s="18"/>
       <c r="E6" s="29"/>
     </row>
@@ -10498,19 +9585,19 @@
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="35" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>357</v>
+        <v>316</v>
       </c>
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
@@ -10523,10 +9610,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>378</v>
+        <v>337</v>
       </c>
       <c r="D9" s="37">
         <v>1</v>
@@ -10559,13 +9646,13 @@
         <v>1.2</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>378</v>
-      </c>
-      <c r="D10" s="162" t="s">
-        <v>380</v>
+        <v>337</v>
+      </c>
+      <c r="D10" s="154" t="s">
+        <v>339</v>
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="37" t="str">
@@ -10598,10 +9685,10 @@
         <v>45</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>381</v>
+        <v>340</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="37" t="str">
@@ -10811,7 +9898,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B17" s="151" t="s">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="C17" s="151" t="s">
         <v>44</v>
@@ -10847,7 +9934,7 @@
         <v>5.2</v>
       </c>
       <c r="B18" s="151" t="s">
-        <v>363</v>
+        <v>322</v>
       </c>
       <c r="C18" s="151" t="s">
         <v>48</v>
@@ -10883,7 +9970,7 @@
         <v>5.3</v>
       </c>
       <c r="B19" s="151" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
       <c r="C19" s="151" t="s">
         <v>43</v>
@@ -10960,7 +10047,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C22" s="40" t="s">
-        <v>365</v>
+        <v>324</v>
       </c>
       <c r="F22" s="42">
         <f>D21</f>
@@ -11003,11 +10090,11 @@
     </row>
     <row r="24" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="25" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I25" s="153" t="s">
+      <c r="I25" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="J25" s="153"/>
-      <c r="K25" s="153"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="156"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="I26" t="s">
@@ -11099,7 +10186,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="44" t="s">
-        <v>370</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
@@ -11127,7 +10214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49992CB-8BA2-494A-B9AE-3FF71D36E1EA}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="72" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -11940,10 +11027,10 @@
       <c r="F63" s="95"/>
     </row>
     <row r="64" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A64" s="154">
+      <c r="A64" s="157">
         <v>2</v>
       </c>
-      <c r="B64" s="157">
+      <c r="B64" s="160">
         <v>43808</v>
       </c>
       <c r="C64" s="89" t="s">
@@ -11958,8 +11045,8 @@
       <c r="F64" s="91"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A65" s="155"/>
-      <c r="B65" s="158"/>
+      <c r="A65" s="158"/>
+      <c r="B65" s="161"/>
       <c r="C65" s="89" t="s">
         <v>186</v>
       </c>
@@ -11972,8 +11059,8 @@
       <c r="F65" s="91"/>
     </row>
     <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A66" s="155"/>
-      <c r="B66" s="158"/>
+      <c r="A66" s="158"/>
+      <c r="B66" s="161"/>
       <c r="C66" s="89" t="s">
         <v>107</v>
       </c>
@@ -11986,8 +11073,8 @@
       <c r="F66" s="91"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A67" s="155"/>
-      <c r="B67" s="158"/>
+      <c r="A67" s="158"/>
+      <c r="B67" s="161"/>
       <c r="C67" s="89" t="s">
         <v>109</v>
       </c>
@@ -12000,8 +11087,8 @@
       <c r="F67" s="91"/>
     </row>
     <row r="68" spans="1:6" s="61" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="156"/>
-      <c r="B68" s="159"/>
+      <c r="A68" s="159"/>
+      <c r="B68" s="162"/>
       <c r="C68" s="93" t="s">
         <v>105</v>
       </c>
@@ -12014,10 +11101,10 @@
       <c r="F68" s="95"/>
     </row>
     <row r="69" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A69" s="154">
+      <c r="A69" s="157">
         <v>2</v>
       </c>
-      <c r="B69" s="157">
+      <c r="B69" s="160">
         <v>43811</v>
       </c>
       <c r="C69" s="89" t="s">
@@ -12032,8 +11119,8 @@
       <c r="F69" s="98"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A70" s="155"/>
-      <c r="B70" s="158"/>
+      <c r="A70" s="158"/>
+      <c r="B70" s="161"/>
       <c r="C70" s="89" t="s">
         <v>186</v>
       </c>
@@ -12046,8 +11133,8 @@
       <c r="F70" s="98"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A71" s="155"/>
-      <c r="B71" s="158"/>
+      <c r="A71" s="158"/>
+      <c r="B71" s="161"/>
       <c r="C71" s="89" t="s">
         <v>107</v>
       </c>
@@ -12060,8 +11147,8 @@
       <c r="F71" s="98"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A72" s="155"/>
-      <c r="B72" s="158"/>
+      <c r="A72" s="158"/>
+      <c r="B72" s="161"/>
       <c r="C72" s="89" t="s">
         <v>109</v>
       </c>
@@ -12074,8 +11161,8 @@
       <c r="F72" s="98"/>
     </row>
     <row r="73" spans="1:6" s="61" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="156"/>
-      <c r="B73" s="159"/>
+      <c r="A73" s="159"/>
+      <c r="B73" s="162"/>
       <c r="C73" s="93" t="s">
         <v>105</v>
       </c>
@@ -12193,14 +11280,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E7DDFF6-C690-9E43-B864-66BB93F58BFE}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView zoomScale="61" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="64.6640625" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" customWidth="1"/>
+    <col min="3" max="3" width="68.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.796875" customWidth="1"/>
     <col min="6" max="6" width="43.33203125" customWidth="1"/>
   </cols>
@@ -12212,331 +11299,235 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="105" t="s">
-        <v>214</v>
+        <v>349</v>
       </c>
       <c r="B2" s="18"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="C4" s="106" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="D4" s="106" t="s">
         <v>217</v>
-      </c>
-      <c r="D4" s="106" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>337</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>343</v>
       </c>
       <c r="C5" s="107" t="s">
-        <v>219</v>
+        <v>344</v>
       </c>
       <c r="D5" s="108" t="s">
-        <v>104</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>341</v>
       </c>
       <c r="B6" s="107" t="s">
-        <v>220</v>
+        <v>346</v>
       </c>
       <c r="C6" s="109" t="s">
-        <v>221</v>
+        <v>347</v>
       </c>
       <c r="D6" s="109" t="s">
-        <v>222</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="107" t="s">
-        <v>223</v>
-      </c>
-      <c r="C7" s="109" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="109" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="107" t="s">
-        <v>224</v>
-      </c>
-      <c r="C8" s="109" t="s">
-        <v>225</v>
-      </c>
-      <c r="D8" s="109" t="s">
-        <v>226</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="B7" s="107"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="107" t="s">
-        <v>227</v>
-      </c>
-      <c r="C9" s="109" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" s="109" t="s">
-        <v>104</v>
-      </c>
+      <c r="B9" s="107"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
     </row>
     <row r="12" spans="1:6" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A12" s="104" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="105" t="s">
-        <v>229</v>
+        <v>350</v>
       </c>
       <c r="B13" s="18"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="B15" s="106" t="s">
+      <c r="C15" s="106" t="s">
         <v>216</v>
       </c>
-      <c r="C15" s="106" t="s">
+      <c r="D15" s="106" t="s">
         <v>217</v>
       </c>
-      <c r="D15" s="106" t="s">
-        <v>218</v>
-      </c>
       <c r="F15" s="110" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="107" t="s">
-        <v>231</v>
-      </c>
-      <c r="C16" s="108" t="s">
-        <v>232</v>
+        <v>337</v>
+      </c>
+      <c r="B16" t="s">
+        <v>343</v>
+      </c>
+      <c r="C16" s="107" t="s">
+        <v>344</v>
       </c>
       <c r="D16" s="108" t="s">
-        <v>233</v>
+        <v>345</v>
       </c>
       <c r="F16" s="111" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>341</v>
       </c>
       <c r="B17" s="107" t="s">
-        <v>235</v>
+        <v>346</v>
       </c>
       <c r="C17" s="109" t="s">
-        <v>236</v>
+        <v>347</v>
       </c>
       <c r="D17" s="109" t="s">
-        <v>237</v>
+        <v>348</v>
       </c>
       <c r="F17" s="111" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="107" t="s">
-        <v>239</v>
-      </c>
-      <c r="C18" s="109" t="s">
-        <v>240</v>
-      </c>
-      <c r="D18" s="109" t="s">
-        <v>241</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="B18" s="107"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
       <c r="F18" s="111" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="107" t="s">
-        <v>243</v>
-      </c>
-      <c r="C19" s="112" t="s">
-        <v>244</v>
-      </c>
-      <c r="D19" s="112" t="s">
-        <v>245</v>
-      </c>
+      <c r="B19" s="107"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
       <c r="F19" s="113" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="107" t="s">
-        <v>247</v>
-      </c>
-      <c r="C20" s="109" t="s">
-        <v>248</v>
-      </c>
-      <c r="D20" s="112" t="s">
-        <v>249</v>
-      </c>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B20" s="107"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="112"/>
       <c r="F20" s="113" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="F21" s="113" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A23" s="104" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="105" t="s">
-        <v>253</v>
+        <v>351</v>
       </c>
       <c r="B24" s="18"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="B26" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="B26" s="106" t="s">
+      <c r="C26" s="106" t="s">
         <v>216</v>
       </c>
-      <c r="C26" s="106" t="s">
+      <c r="D26" s="106" t="s">
         <v>217</v>
       </c>
-      <c r="D26" s="106" t="s">
-        <v>218</v>
-      </c>
       <c r="F26" s="110" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="57" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" s="107" t="s">
-        <v>254</v>
-      </c>
-      <c r="C27" s="107" t="s">
-        <v>255</v>
-      </c>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B27" s="107"/>
+      <c r="C27" s="107"/>
       <c r="D27" s="108"/>
       <c r="F27" s="111" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="107" t="s">
-        <v>257</v>
-      </c>
-      <c r="C28" s="107" t="s">
-        <v>258</v>
-      </c>
-      <c r="D28" s="108" t="s">
-        <v>259</v>
-      </c>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B28" s="107"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="108"/>
       <c r="F28" s="111" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="107" t="s">
-        <v>261</v>
-      </c>
-      <c r="C29" s="107" t="s">
-        <v>262</v>
-      </c>
-      <c r="D29" s="108" t="s">
-        <v>263</v>
-      </c>
+      <c r="B29" s="107"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="108"/>
       <c r="F29" s="113" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="107" t="s">
-        <v>265</v>
-      </c>
-      <c r="C30" s="107" t="s">
-        <v>266</v>
-      </c>
-      <c r="D30" s="108" t="s">
-        <v>267</v>
-      </c>
+      <c r="B30" s="107"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="108"/>
       <c r="F30" s="113" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="107" t="s">
-        <v>269</v>
-      </c>
-      <c r="C31" s="107" t="s">
-        <v>270</v>
-      </c>
-      <c r="D31" s="107" t="s">
-        <v>271</v>
-      </c>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B31" s="107"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="107"/>
       <c r="F31" s="113" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F32" s="113" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F33" s="113" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
@@ -12546,7 +11537,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/BinderBacklog.xlsx
+++ b/BinderBacklog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{120294B3-B192-4CDE-9654-2022448F0445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E40803-A673-4BB0-891F-91A9BB0B8DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="762" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7594,8 +7594,8 @@
   <dimension ref="A1:R82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="68" zoomScaleNormal="160" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
